--- a/nr-add-mapping-mos/ig/StructureDefinition-as-dp-practitioner.xlsx
+++ b/nr-add-mapping-mos/ig/StructureDefinition-as-dp-practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14306" uniqueCount="1074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14306" uniqueCount="1068">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T10:57:32+00:00</t>
+    <t>2025-01-02T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2289,9 +2289,6 @@
     <t>Extension on the ContactPoint datatype. This extension allows to specify the type of mail used to contact the person (MSSsanté|Apicrypt|OSM|Autre).</t>
   </si>
   <si>
-    <t>ExerciceProfessionnel.boiteLettresMSS.typeBAL</t>
-  </si>
-  <si>
     <t>Practitioner.telecom:mailbox-mss.extension:emailType.id</t>
   </si>
   <si>
@@ -2393,9 +2390,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>ExerciceProfessionnel.boiteLettresMSS.description</t>
-  </si>
-  <si>
     <t>Practitioner.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:description.id</t>
   </si>
   <si>
@@ -2432,9 +2426,6 @@
     <t>service</t>
   </si>
   <si>
-    <t>ExerciceProfessionnel.BoiteLettreMSS.serviceRattachement</t>
-  </si>
-  <si>
     <t>Practitioner.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:service.id</t>
   </si>
   <si>
@@ -2471,9 +2462,6 @@
     <t>digitization</t>
   </si>
   <si>
-    <t>ExerciceProfessionnel.BoiteLettreMSS.dematerialisation</t>
-  </si>
-  <si>
     <t>Practitioner.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:digitization.id</t>
   </si>
   <si>
@@ -2490,9 +2478,6 @@
   </si>
   <si>
     <t>listeRouge</t>
-  </si>
-  <si>
-    <t>ExerciceProfessionnel.BoiteLettreMSS.listeRouge</t>
   </si>
   <si>
     <t>Practitioner.telecom:mailbox-mss.extension:as-mailbox-mss-metadata.extension:listeRouge.id</t>
@@ -2572,9 +2557,6 @@
   </si>
   <si>
     <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>ExerciceProfessionnel.boiteLettresMSS.adresseMSS</t>
   </si>
   <si>
     <t>XTN.1 (or XTN.12)</t>
@@ -30322,7 +30304,7 @@
         <v>84</v>
       </c>
       <c r="AL198" t="s" s="2">
-        <v>731</v>
+        <v>84</v>
       </c>
       <c r="AM198" t="s" s="2">
         <v>84</v>
@@ -30354,10 +30336,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="B199" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="B199" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -30487,10 +30469,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="B200" t="s" s="2">
         <v>734</v>
-      </c>
-      <c r="B200" t="s" s="2">
-        <v>735</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -30620,10 +30602,10 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
+        <v>735</v>
+      </c>
+      <c r="B201" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="B201" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -30663,7 +30645,7 @@
       </c>
       <c r="Q201" s="2"/>
       <c r="R201" t="s" s="2">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="S201" t="s" s="2">
         <v>84</v>
@@ -30755,10 +30737,10 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
+        <v>738</v>
+      </c>
+      <c r="B202" t="s" s="2">
         <v>739</v>
-      </c>
-      <c r="B202" t="s" s="2">
-        <v>740</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -30799,7 +30781,7 @@
         <v>84</v>
       </c>
       <c r="S202" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="T202" t="s" s="2">
         <v>84</v>
@@ -30818,7 +30800,7 @@
       </c>
       <c r="Y202" s="2"/>
       <c r="Z202" t="s" s="2">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AA202" t="s" s="2">
         <v>84</v>
@@ -30886,13 +30868,13 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>725</v>
       </c>
       <c r="C203" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D203" t="s" s="2">
         <v>84</v>
@@ -30914,13 +30896,13 @@
         <v>84</v>
       </c>
       <c r="K203" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="L203" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="L203" t="s" s="2">
+      <c r="M203" t="s" s="2">
         <v>746</v>
-      </c>
-      <c r="M203" t="s" s="2">
-        <v>747</v>
       </c>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
@@ -31021,10 +31003,10 @@
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -31154,10 +31136,10 @@
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -31289,10 +31271,10 @@
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C206" t="s" s="2">
         <v>332</v>
@@ -31320,7 +31302,7 @@
         <v>123</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="M206" t="s" s="2">
         <v>217</v>
@@ -31424,10 +31406,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
+        <v>751</v>
+      </c>
+      <c r="B207" t="s" s="2">
         <v>752</v>
-      </c>
-      <c r="B207" t="s" s="2">
-        <v>753</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -31557,10 +31539,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
+        <v>753</v>
+      </c>
+      <c r="B208" t="s" s="2">
         <v>754</v>
-      </c>
-      <c r="B208" t="s" s="2">
-        <v>755</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -31690,10 +31672,10 @@
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
+        <v>755</v>
+      </c>
+      <c r="B209" t="s" s="2">
         <v>756</v>
-      </c>
-      <c r="B209" t="s" s="2">
-        <v>757</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -31825,10 +31807,10 @@
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="B210" t="s" s="2">
         <v>758</v>
-      </c>
-      <c r="B210" t="s" s="2">
-        <v>759</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -31888,7 +31870,7 @@
       </c>
       <c r="Y210" s="2"/>
       <c r="Z210" t="s" s="2">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AA210" t="s" s="2">
         <v>84</v>
@@ -31956,13 +31938,13 @@
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="B211" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="C211" t="s" s="2">
         <v>761</v>
-      </c>
-      <c r="B211" t="s" s="2">
-        <v>735</v>
-      </c>
-      <c r="C211" t="s" s="2">
-        <v>762</v>
       </c>
       <c r="D211" t="s" s="2">
         <v>84</v>
@@ -32059,7 +32041,7 @@
         <v>84</v>
       </c>
       <c r="AL211" t="s" s="2">
-        <v>763</v>
+        <v>84</v>
       </c>
       <c r="AM211" t="s" s="2">
         <v>84</v>
@@ -32091,10 +32073,10 @@
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -32224,10 +32206,10 @@
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -32357,10 +32339,10 @@
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -32400,7 +32382,7 @@
       </c>
       <c r="Q214" s="2"/>
       <c r="R214" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="S214" t="s" s="2">
         <v>84</v>
@@ -32492,10 +32474,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -32625,13 +32607,13 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D216" t="s" s="2">
         <v>84</v>
@@ -32760,10 +32742,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -32893,10 +32875,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -33026,10 +33008,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -33069,7 +33051,7 @@
       </c>
       <c r="Q219" s="2"/>
       <c r="R219" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="S219" t="s" s="2">
         <v>84</v>
@@ -33161,10 +33143,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -33294,13 +33276,13 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D221" t="s" s="2">
         <v>84</v>
@@ -33397,7 +33379,7 @@
         <v>84</v>
       </c>
       <c r="AL221" t="s" s="2">
-        <v>776</v>
+        <v>84</v>
       </c>
       <c r="AM221" t="s" s="2">
         <v>84</v>
@@ -33429,10 +33411,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -33562,10 +33544,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -33695,10 +33677,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -33738,7 +33720,7 @@
       </c>
       <c r="Q224" s="2"/>
       <c r="R224" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="S224" t="s" s="2">
         <v>84</v>
@@ -33830,10 +33812,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -33963,13 +33945,13 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C226" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="D226" t="s" s="2">
         <v>84</v>
@@ -34098,10 +34080,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -34231,10 +34213,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -34364,10 +34346,10 @@
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -34407,7 +34389,7 @@
       </c>
       <c r="Q229" s="2"/>
       <c r="R229" t="s" s="2">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="S229" t="s" s="2">
         <v>84</v>
@@ -34499,10 +34481,10 @@
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -34632,13 +34614,13 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C231" t="s" s="2">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D231" t="s" s="2">
         <v>84</v>
@@ -34735,7 +34717,7 @@
         <v>84</v>
       </c>
       <c r="AL231" t="s" s="2">
-        <v>789</v>
+        <v>84</v>
       </c>
       <c r="AM231" t="s" s="2">
         <v>84</v>
@@ -34767,10 +34749,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -34900,10 +34882,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -35033,10 +35015,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -35076,7 +35058,7 @@
       </c>
       <c r="Q234" s="2"/>
       <c r="R234" t="s" s="2">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="S234" t="s" s="2">
         <v>84</v>
@@ -35168,10 +35150,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -35301,13 +35283,13 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D236" t="s" s="2">
         <v>84</v>
@@ -35404,7 +35386,7 @@
         <v>84</v>
       </c>
       <c r="AL236" t="s" s="2">
-        <v>796</v>
+        <v>84</v>
       </c>
       <c r="AM236" t="s" s="2">
         <v>84</v>
@@ -35436,10 +35418,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -35569,10 +35551,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -35702,10 +35684,10 @@
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -35745,7 +35727,7 @@
       </c>
       <c r="Q239" s="2"/>
       <c r="R239" t="s" s="2">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="S239" t="s" s="2">
         <v>84</v>
@@ -35837,10 +35819,10 @@
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -35970,10 +35952,10 @@
     </row>
     <row r="241" hidden="true">
       <c r="A241" t="s" s="2">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -36013,7 +35995,7 @@
       </c>
       <c r="Q241" s="2"/>
       <c r="R241" t="s" s="2">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>84</v>
@@ -36105,10 +36087,10 @@
     </row>
     <row r="242" hidden="true">
       <c r="A242" t="s" s="2">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -36238,10 +36220,10 @@
     </row>
     <row r="243" hidden="true">
       <c r="A243" t="s" s="2">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="B243" t="s" s="2">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" t="s" s="2">
@@ -36267,10 +36249,10 @@
         <v>191</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="N243" s="2"/>
       <c r="O243" s="2"/>
@@ -36282,7 +36264,7 @@
         <v>84</v>
       </c>
       <c r="S243" t="s" s="2">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="T243" t="s" s="2">
         <v>84</v>
@@ -36300,10 +36282,10 @@
         <v>252</v>
       </c>
       <c r="Y243" t="s" s="2">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="Z243" t="s" s="2">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="AA243" t="s" s="2">
         <v>84</v>
@@ -36321,7 +36303,7 @@
         <v>84</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>85</v>
@@ -36330,7 +36312,7 @@
         <v>102</v>
       </c>
       <c r="AI243" t="s" s="2">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="AJ243" t="s" s="2">
         <v>114</v>
@@ -36357,13 +36339,13 @@
         <v>84</v>
       </c>
       <c r="AR243" t="s" s="2">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="AS243" t="s" s="2">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="AT243" t="s" s="2">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="AU243" t="s" s="2">
         <v>84</v>
@@ -36371,10 +36353,10 @@
     </row>
     <row r="244" hidden="true">
       <c r="A244" t="s" s="2">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -36400,16 +36382,16 @@
         <v>116</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="N244" t="s" s="2">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="O244" t="s" s="2">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="P244" t="s" s="2">
         <v>84</v>
@@ -36458,7 +36440,7 @@
         <v>84</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>85</v>
@@ -36476,7 +36458,7 @@
         <v>84</v>
       </c>
       <c r="AL244" t="s" s="2">
-        <v>823</v>
+        <v>84</v>
       </c>
       <c r="AM244" t="s" s="2">
         <v>84</v>
@@ -36494,10 +36476,10 @@
         <v>84</v>
       </c>
       <c r="AR244" t="s" s="2">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="AS244" t="s" s="2">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="AT244" t="s" s="2">
         <v>538</v>
@@ -36508,10 +36490,10 @@
     </row>
     <row r="245" hidden="true">
       <c r="A245" t="s" s="2">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -36537,16 +36519,16 @@
         <v>191</v>
       </c>
       <c r="L245" t="s" s="2">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="M245" t="s" s="2">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="N245" t="s" s="2">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="O245" t="s" s="2">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="P245" t="s" s="2">
         <v>84</v>
@@ -36574,10 +36556,10 @@
         <v>252</v>
       </c>
       <c r="Y245" t="s" s="2">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="Z245" t="s" s="2">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="AA245" t="s" s="2">
         <v>84</v>
@@ -36595,7 +36577,7 @@
         <v>84</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>85</v>
@@ -36631,13 +36613,13 @@
         <v>84</v>
       </c>
       <c r="AR245" t="s" s="2">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="AS245" t="s" s="2">
         <v>649</v>
       </c>
       <c r="AT245" t="s" s="2">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="AU245" t="s" s="2">
         <v>84</v>
@@ -36645,10 +36627,10 @@
     </row>
     <row r="246" hidden="true">
       <c r="A246" t="s" s="2">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -36671,16 +36653,16 @@
         <v>103</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="N246" t="s" s="2">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="O246" s="2"/>
       <c r="P246" t="s" s="2">
@@ -36730,7 +36712,7 @@
         <v>84</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>85</v>
@@ -36780,10 +36762,10 @@
     </row>
     <row r="247" hidden="true">
       <c r="A247" t="s" s="2">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -36809,10 +36791,10 @@
         <v>269</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -36863,7 +36845,7 @@
         <v>84</v>
       </c>
       <c r="AF247" t="s" s="2">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="AG247" t="s" s="2">
         <v>85</v>
@@ -36913,10 +36895,10 @@
     </row>
     <row r="248" hidden="true">
       <c r="A248" t="s" s="2">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="B248" t="s" s="2">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" t="s" s="2">
@@ -36939,19 +36921,19 @@
         <v>84</v>
       </c>
       <c r="K248" t="s" s="2">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="N248" t="s" s="2">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="O248" t="s" s="2">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="P248" t="s" s="2">
         <v>84</v>
@@ -37000,7 +36982,7 @@
         <v>84</v>
       </c>
       <c r="AF248" t="s" s="2">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="AG248" t="s" s="2">
         <v>85</v>
@@ -37027,7 +37009,7 @@
         <v>84</v>
       </c>
       <c r="AO248" t="s" s="2">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="AP248" t="s" s="2">
         <v>84</v>
@@ -37036,13 +37018,13 @@
         <v>84</v>
       </c>
       <c r="AR248" t="s" s="2">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="AS248" t="s" s="2">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="AT248" t="s" s="2">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="AU248" t="s" s="2">
         <v>84</v>
@@ -37050,10 +37032,10 @@
     </row>
     <row r="249" hidden="true">
       <c r="A249" t="s" s="2">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -37079,14 +37061,14 @@
         <v>191</v>
       </c>
       <c r="L249" t="s" s="2">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="M249" t="s" s="2">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="N249" s="2"/>
       <c r="O249" t="s" s="2">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="P249" t="s" s="2">
         <v>84</v>
@@ -37114,10 +37096,10 @@
         <v>252</v>
       </c>
       <c r="Y249" t="s" s="2">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="Z249" t="s" s="2">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="AA249" t="s" s="2">
         <v>84</v>
@@ -37135,7 +37117,7 @@
         <v>84</v>
       </c>
       <c r="AF249" t="s" s="2">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="AG249" t="s" s="2">
         <v>85</v>
@@ -37171,13 +37153,13 @@
         <v>84</v>
       </c>
       <c r="AR249" t="s" s="2">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="AS249" t="s" s="2">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="AT249" t="s" s="2">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="AU249" t="s" s="2">
         <v>84</v>
@@ -37185,10 +37167,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -37211,17 +37193,17 @@
         <v>103</v>
       </c>
       <c r="K250" t="s" s="2">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="L250" t="s" s="2">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="M250" t="s" s="2">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" t="s" s="2">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="P250" t="s" s="2">
         <v>84</v>
@@ -37270,7 +37252,7 @@
         <v>84</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>85</v>
@@ -37306,13 +37288,13 @@
         <v>84</v>
       </c>
       <c r="AR250" t="s" s="2">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="AS250" t="s" s="2">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="AT250" t="s" s="2">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="AU250" t="s" s="2">
         <v>84</v>
@@ -37320,10 +37302,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -37346,17 +37328,17 @@
         <v>84</v>
       </c>
       <c r="K251" t="s" s="2">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" t="s" s="2">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="P251" t="s" s="2">
         <v>84</v>
@@ -37405,7 +37387,7 @@
         <v>84</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>85</v>
@@ -37444,10 +37426,10 @@
         <v>84</v>
       </c>
       <c r="AS251" t="s" s="2">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="AT251" t="s" s="2">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="AU251" t="s" s="2">
         <v>84</v>
@@ -37455,10 +37437,10 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -37481,13 +37463,13 @@
         <v>84</v>
       </c>
       <c r="K252" t="s" s="2">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="L252" t="s" s="2">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="M252" t="s" s="2">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
@@ -37526,7 +37508,7 @@
         <v>84</v>
       </c>
       <c r="AB252" t="s" s="2">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="AC252" s="2"/>
       <c r="AD252" t="s" s="2">
@@ -37536,7 +37518,7 @@
         <v>129</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="AG252" t="s" s="2">
         <v>85</v>
@@ -37572,13 +37554,13 @@
         <v>84</v>
       </c>
       <c r="AR252" t="s" s="2">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="AS252" t="s" s="2">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="AT252" t="s" s="2">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="AU252" t="s" s="2">
         <v>84</v>
@@ -37586,10 +37568,10 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -37719,10 +37701,10 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -37854,14 +37836,14 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E255" s="2"/>
       <c r="F255" t="s" s="2">
@@ -37883,10 +37865,10 @@
         <v>123</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="N255" t="s" s="2">
         <v>126</v>
@@ -37941,7 +37923,7 @@
         <v>84</v>
       </c>
       <c r="AF255" t="s" s="2">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="AG255" t="s" s="2">
         <v>85</v>
@@ -37991,10 +37973,10 @@
     </row>
     <row r="256" hidden="true">
       <c r="A256" t="s" s="2">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" t="s" s="2">
@@ -38020,14 +38002,14 @@
         <v>433</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" t="s" s="2">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="P256" t="s" s="2">
         <v>84</v>
@@ -38076,7 +38058,7 @@
         <v>84</v>
       </c>
       <c r="AF256" t="s" s="2">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="AG256" t="s" s="2">
         <v>85</v>
@@ -38100,7 +38082,7 @@
         <v>84</v>
       </c>
       <c r="AN256" t="s" s="2">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="AO256" t="s" s="2">
         <v>84</v>
@@ -38115,7 +38097,7 @@
         <v>84</v>
       </c>
       <c r="AS256" t="s" s="2">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="AT256" t="s" s="2">
         <v>84</v>
@@ -38126,10 +38108,10 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -38155,10 +38137,10 @@
         <v>249</v>
       </c>
       <c r="L257" t="s" s="2">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="M257" t="s" s="2">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="N257" s="2"/>
       <c r="O257" s="2"/>
@@ -38188,10 +38170,10 @@
         <v>181</v>
       </c>
       <c r="Y257" t="s" s="2">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="Z257" t="s" s="2">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="AA257" t="s" s="2">
         <v>84</v>
@@ -38209,7 +38191,7 @@
         <v>84</v>
       </c>
       <c r="AF257" t="s" s="2">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="AG257" t="s" s="2">
         <v>102</v>
@@ -38233,7 +38215,7 @@
         <v>84</v>
       </c>
       <c r="AN257" t="s" s="2">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="AO257" t="s" s="2">
         <v>84</v>
@@ -38248,10 +38230,10 @@
         <v>84</v>
       </c>
       <c r="AS257" t="s" s="2">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="AT257" t="s" s="2">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="AU257" t="s" s="2">
         <v>84</v>
@@ -38259,10 +38241,10 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -38288,14 +38270,14 @@
         <v>269</v>
       </c>
       <c r="L258" t="s" s="2">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="M258" t="s" s="2">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="N258" s="2"/>
       <c r="O258" t="s" s="2">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="P258" t="s" s="2">
         <v>84</v>
@@ -38344,7 +38326,7 @@
         <v>84</v>
       </c>
       <c r="AF258" t="s" s="2">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="AG258" t="s" s="2">
         <v>85</v>
@@ -38383,10 +38365,10 @@
         <v>84</v>
       </c>
       <c r="AS258" t="s" s="2">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="AT258" t="s" s="2">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AU258" t="s" s="2">
         <v>84</v>
@@ -38394,10 +38376,10 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -38423,10 +38405,10 @@
         <v>547</v>
       </c>
       <c r="L259" t="s" s="2">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="M259" t="s" s="2">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
@@ -38477,7 +38459,7 @@
         <v>84</v>
       </c>
       <c r="AF259" t="s" s="2">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG259" t="s" s="2">
         <v>85</v>
@@ -38516,7 +38498,7 @@
         <v>84</v>
       </c>
       <c r="AS259" t="s" s="2">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="AT259" t="s" s="2">
         <v>84</v>
@@ -38527,13 +38509,13 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C260" t="s" s="2">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="D260" t="s" s="2">
         <v>84</v>
@@ -38555,13 +38537,13 @@
         <v>84</v>
       </c>
       <c r="K260" t="s" s="2">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
@@ -38612,7 +38594,7 @@
         <v>84</v>
       </c>
       <c r="AF260" t="s" s="2">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="AG260" t="s" s="2">
         <v>85</v>
@@ -38636,7 +38618,7 @@
         <v>84</v>
       </c>
       <c r="AN260" t="s" s="2">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="AO260" t="s" s="2">
         <v>84</v>
@@ -38648,13 +38630,13 @@
         <v>84</v>
       </c>
       <c r="AR260" t="s" s="2">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="AS260" t="s" s="2">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="AT260" t="s" s="2">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="AU260" t="s" s="2">
         <v>84</v>
@@ -38662,10 +38644,10 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -38795,10 +38777,10 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -38926,13 +38908,13 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="D263" t="s" s="2">
         <v>84</v>
@@ -38954,13 +38936,13 @@
         <v>84</v>
       </c>
       <c r="K263" t="s" s="2">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="L263" t="s" s="2">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="M263" t="s" s="2">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="N263" s="2"/>
       <c r="O263" s="2"/>
@@ -39061,10 +39043,10 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -39194,10 +39176,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -39329,13 +39311,13 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="D266" t="s" s="2">
         <v>84</v>
@@ -39438,7 +39420,7 @@
         <v>84</v>
       </c>
       <c r="AN266" t="s" s="2">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="AO266" t="s" s="2">
         <v>84</v>
@@ -39464,10 +39446,10 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -39597,10 +39579,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -39730,10 +39712,10 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -39773,7 +39755,7 @@
       </c>
       <c r="Q269" s="2"/>
       <c r="R269" t="s" s="2">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="S269" t="s" s="2">
         <v>84</v>
@@ -39865,10 +39847,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -39928,7 +39910,7 @@
       </c>
       <c r="Y270" s="2"/>
       <c r="Z270" t="s" s="2">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="AA270" t="s" s="2">
         <v>84</v>
@@ -39996,13 +39978,13 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C271" t="s" s="2">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="D271" t="s" s="2">
         <v>84</v>
@@ -40105,7 +40087,7 @@
         <v>84</v>
       </c>
       <c r="AN271" t="s" s="2">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="AO271" t="s" s="2">
         <v>84</v>
@@ -40131,10 +40113,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -40264,10 +40246,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -40397,10 +40379,10 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -40440,7 +40422,7 @@
       </c>
       <c r="Q274" s="2"/>
       <c r="R274" t="s" s="2">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="S274" t="s" s="2">
         <v>84</v>
@@ -40532,10 +40514,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -40595,7 +40577,7 @@
       </c>
       <c r="Y275" s="2"/>
       <c r="Z275" t="s" s="2">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="AA275" t="s" s="2">
         <v>84</v>
@@ -40663,13 +40645,13 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="D276" t="s" s="2">
         <v>84</v>
@@ -40772,7 +40754,7 @@
         <v>84</v>
       </c>
       <c r="AN276" t="s" s="2">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="AO276" t="s" s="2">
         <v>84</v>
@@ -40798,10 +40780,10 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -40931,10 +40913,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -41064,10 +41046,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -41107,7 +41089,7 @@
       </c>
       <c r="Q279" s="2"/>
       <c r="R279" t="s" s="2">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="S279" t="s" s="2">
         <v>84</v>
@@ -41199,10 +41181,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="B280" t="s" s="2">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -41262,7 +41244,7 @@
       </c>
       <c r="Y280" s="2"/>
       <c r="Z280" t="s" s="2">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="AA280" t="s" s="2">
         <v>84</v>
@@ -41330,10 +41312,10 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -41373,7 +41355,7 @@
       </c>
       <c r="Q281" s="2"/>
       <c r="R281" t="s" s="2">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="S281" t="s" s="2">
         <v>84</v>
@@ -41465,10 +41447,10 @@
     </row>
     <row r="282" hidden="true">
       <c r="A282" t="s" s="2">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" t="s" s="2">
@@ -41598,14 +41580,14 @@
     </row>
     <row r="283" hidden="true">
       <c r="A283" t="s" s="2">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" t="s" s="2">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E283" s="2"/>
       <c r="F283" t="s" s="2">
@@ -41627,10 +41609,10 @@
         <v>123</v>
       </c>
       <c r="L283" t="s" s="2">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="M283" t="s" s="2">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="N283" t="s" s="2">
         <v>126</v>
@@ -41685,7 +41667,7 @@
         <v>84</v>
       </c>
       <c r="AF283" t="s" s="2">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="AG283" t="s" s="2">
         <v>85</v>
@@ -41735,10 +41717,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -41764,14 +41746,14 @@
         <v>433</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="N284" s="2"/>
       <c r="O284" t="s" s="2">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="P284" t="s" s="2">
         <v>84</v>
@@ -41820,7 +41802,7 @@
         <v>84</v>
       </c>
       <c r="AF284" t="s" s="2">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="AG284" t="s" s="2">
         <v>85</v>
@@ -41859,7 +41841,7 @@
         <v>84</v>
       </c>
       <c r="AS284" t="s" s="2">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="AT284" t="s" s="2">
         <v>84</v>
@@ -41870,10 +41852,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -41899,10 +41881,10 @@
         <v>249</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="N285" s="2"/>
       <c r="O285" s="2"/>
@@ -41932,10 +41914,10 @@
         <v>181</v>
       </c>
       <c r="Y285" t="s" s="2">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="Z285" t="s" s="2">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="AA285" t="s" s="2">
         <v>84</v>
@@ -41953,7 +41935,7 @@
         <v>84</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="AG285" t="s" s="2">
         <v>102</v>
@@ -41992,10 +41974,10 @@
         <v>84</v>
       </c>
       <c r="AS285" t="s" s="2">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="AT285" t="s" s="2">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="AU285" t="s" s="2">
         <v>84</v>
@@ -42003,10 +41985,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -42136,10 +42118,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -42271,10 +42253,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -42406,13 +42388,13 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="B289" t="s" s="2">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C289" t="s" s="2">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D289" t="s" s="2">
         <v>84</v>
@@ -42475,7 +42457,7 @@
       </c>
       <c r="Y289" s="2"/>
       <c r="Z289" t="s" s="2">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="AA289" t="s" s="2">
         <v>84</v>
@@ -42543,13 +42525,13 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="D290" t="s" s="2">
         <v>84</v>
@@ -42612,7 +42594,7 @@
       </c>
       <c r="Y290" s="2"/>
       <c r="Z290" t="s" s="2">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="AA290" t="s" s="2">
         <v>84</v>
@@ -42680,10 +42662,10 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" t="s" s="2">
@@ -42817,10 +42799,10 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C292" s="2"/>
       <c r="D292" t="s" s="2">
@@ -42846,14 +42828,14 @@
         <v>269</v>
       </c>
       <c r="L292" t="s" s="2">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="M292" t="s" s="2">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="N292" s="2"/>
       <c r="O292" t="s" s="2">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="P292" t="s" s="2">
         <v>84</v>
@@ -42902,7 +42884,7 @@
         <v>84</v>
       </c>
       <c r="AF292" t="s" s="2">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="AG292" t="s" s="2">
         <v>85</v>
@@ -42941,10 +42923,10 @@
         <v>84</v>
       </c>
       <c r="AS292" t="s" s="2">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="AT292" t="s" s="2">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AU292" t="s" s="2">
         <v>84</v>
@@ -42952,10 +42934,10 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" t="s" s="2">
@@ -43085,10 +43067,10 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -43220,10 +43202,10 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -43249,7 +43231,7 @@
         <v>276</v>
       </c>
       <c r="L295" t="s" s="2">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="M295" t="s" s="2">
         <v>278</v>
@@ -43329,7 +43311,7 @@
         <v>84</v>
       </c>
       <c r="AN295" t="s" s="2">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="AO295" t="s" s="2">
         <v>84</v>
@@ -43355,10 +43337,10 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -43384,7 +43366,7 @@
         <v>276</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="M296" t="s" s="2">
         <v>288</v>
@@ -43466,7 +43448,7 @@
         <v>84</v>
       </c>
       <c r="AN296" t="s" s="2">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="AO296" t="s" s="2">
         <v>84</v>
@@ -43492,10 +43474,10 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -43518,13 +43500,13 @@
         <v>84</v>
       </c>
       <c r="K297" t="s" s="2">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="L297" t="s" s="2">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="M297" t="s" s="2">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="N297" s="2"/>
       <c r="O297" s="2"/>
@@ -43575,7 +43557,7 @@
         <v>84</v>
       </c>
       <c r="AF297" t="s" s="2">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG297" t="s" s="2">
         <v>85</v>
@@ -43599,7 +43581,7 @@
         <v>84</v>
       </c>
       <c r="AN297" t="s" s="2">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="AO297" t="s" s="2">
         <v>84</v>
@@ -43614,7 +43596,7 @@
         <v>84</v>
       </c>
       <c r="AS297" t="s" s="2">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="AT297" t="s" s="2">
         <v>84</v>
@@ -43625,13 +43607,13 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D298" t="s" s="2">
         <v>84</v>
@@ -43653,13 +43635,13 @@
         <v>84</v>
       </c>
       <c r="K298" t="s" s="2">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="L298" t="s" s="2">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="M298" t="s" s="2">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="N298" s="2"/>
       <c r="O298" s="2"/>
@@ -43710,7 +43692,7 @@
         <v>84</v>
       </c>
       <c r="AF298" t="s" s="2">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="AG298" t="s" s="2">
         <v>85</v>
@@ -43746,13 +43728,13 @@
         <v>84</v>
       </c>
       <c r="AR298" t="s" s="2">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="AS298" t="s" s="2">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="AT298" t="s" s="2">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="AU298" t="s" s="2">
         <v>84</v>
@@ -43760,10 +43742,10 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -43893,10 +43875,10 @@
     </row>
     <row r="300" hidden="true">
       <c r="A300" t="s" s="2">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -44028,14 +44010,14 @@
     </row>
     <row r="301" hidden="true">
       <c r="A301" t="s" s="2">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" t="s" s="2">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E301" s="2"/>
       <c r="F301" t="s" s="2">
@@ -44057,10 +44039,10 @@
         <v>123</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="N301" t="s" s="2">
         <v>126</v>
@@ -44115,7 +44097,7 @@
         <v>84</v>
       </c>
       <c r="AF301" t="s" s="2">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="AG301" t="s" s="2">
         <v>85</v>
@@ -44165,10 +44147,10 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -44194,14 +44176,14 @@
         <v>433</v>
       </c>
       <c r="L302" t="s" s="2">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="M302" t="s" s="2">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="N302" s="2"/>
       <c r="O302" t="s" s="2">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="P302" t="s" s="2">
         <v>84</v>
@@ -44250,7 +44232,7 @@
         <v>84</v>
       </c>
       <c r="AF302" t="s" s="2">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="AG302" t="s" s="2">
         <v>85</v>
@@ -44289,7 +44271,7 @@
         <v>84</v>
       </c>
       <c r="AS302" t="s" s="2">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="AT302" t="s" s="2">
         <v>84</v>
@@ -44300,10 +44282,10 @@
     </row>
     <row r="303" hidden="true">
       <c r="A303" t="s" s="2">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -44329,10 +44311,10 @@
         <v>249</v>
       </c>
       <c r="L303" t="s" s="2">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="M303" t="s" s="2">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="N303" s="2"/>
       <c r="O303" s="2"/>
@@ -44362,10 +44344,10 @@
         <v>181</v>
       </c>
       <c r="Y303" t="s" s="2">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="Z303" t="s" s="2">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="AA303" t="s" s="2">
         <v>84</v>
@@ -44383,7 +44365,7 @@
         <v>84</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="AG303" t="s" s="2">
         <v>102</v>
@@ -44422,10 +44404,10 @@
         <v>84</v>
       </c>
       <c r="AS303" t="s" s="2">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="AT303" t="s" s="2">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="AU303" t="s" s="2">
         <v>84</v>
@@ -44433,10 +44415,10 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -44566,10 +44548,10 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -44701,10 +44683,10 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -44836,13 +44818,13 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="D307" t="s" s="2">
         <v>84</v>
@@ -44867,7 +44849,7 @@
         <v>169</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="M307" t="s" s="2">
         <v>466</v>
@@ -44905,7 +44887,7 @@
       </c>
       <c r="Y307" s="2"/>
       <c r="Z307" t="s" s="2">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="AA307" t="s" s="2">
         <v>84</v>
@@ -44941,7 +44923,7 @@
         <v>84</v>
       </c>
       <c r="AL307" t="s" s="2">
-        <v>1018</v>
+        <v>1012</v>
       </c>
       <c r="AM307" t="s" s="2">
         <v>84</v>
@@ -44973,10 +44955,10 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C308" t="s" s="2">
         <v>361</v>
@@ -45004,7 +44986,7 @@
         <v>169</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="M308" t="s" s="2">
         <v>466</v>
@@ -45078,7 +45060,7 @@
         <v>84</v>
       </c>
       <c r="AL308" t="s" s="2">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="AM308" t="s" s="2">
         <v>84</v>
@@ -45110,10 +45092,10 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -45247,10 +45229,10 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -45276,14 +45258,14 @@
         <v>269</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="N310" s="2"/>
       <c r="O310" t="s" s="2">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="P310" t="s" s="2">
         <v>84</v>
@@ -45332,7 +45314,7 @@
         <v>84</v>
       </c>
       <c r="AF310" t="s" s="2">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="AG310" t="s" s="2">
         <v>85</v>
@@ -45371,10 +45353,10 @@
         <v>84</v>
       </c>
       <c r="AS310" t="s" s="2">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="AT310" t="s" s="2">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AU310" t="s" s="2">
         <v>84</v>
@@ -45382,10 +45364,10 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -45515,10 +45497,10 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -45650,10 +45632,10 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C313" s="2"/>
       <c r="D313" t="s" s="2">
@@ -45679,7 +45661,7 @@
         <v>276</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="M313" t="s" s="2">
         <v>278</v>
@@ -45753,7 +45735,7 @@
         <v>84</v>
       </c>
       <c r="AL313" t="s" s="2">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="AM313" t="s" s="2">
         <v>84</v>
@@ -45785,10 +45767,10 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -45814,7 +45796,7 @@
         <v>276</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="M314" t="s" s="2">
         <v>288</v>
@@ -45890,7 +45872,7 @@
         <v>84</v>
       </c>
       <c r="AL314" t="s" s="2">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="AM314" t="s" s="2">
         <v>84</v>
@@ -45922,10 +45904,10 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -45951,10 +45933,10 @@
         <v>547</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="N315" s="2"/>
       <c r="O315" s="2"/>
@@ -46005,7 +45987,7 @@
         <v>84</v>
       </c>
       <c r="AF315" t="s" s="2">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG315" t="s" s="2">
         <v>85</v>
@@ -46044,7 +46026,7 @@
         <v>84</v>
       </c>
       <c r="AS315" t="s" s="2">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="AT315" t="s" s="2">
         <v>84</v>
@@ -46055,13 +46037,13 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D316" t="s" s="2">
         <v>84</v>
@@ -46083,13 +46065,13 @@
         <v>84</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>1035</v>
+        <v>1029</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="N316" s="2"/>
       <c r="O316" s="2"/>
@@ -46140,7 +46122,7 @@
         <v>84</v>
       </c>
       <c r="AF316" t="s" s="2">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="AG316" t="s" s="2">
         <v>85</v>
@@ -46176,13 +46158,13 @@
         <v>84</v>
       </c>
       <c r="AR316" t="s" s="2">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="AS316" t="s" s="2">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="AT316" t="s" s="2">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="AU316" t="s" s="2">
         <v>84</v>
@@ -46190,10 +46172,10 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -46323,10 +46305,10 @@
     </row>
     <row r="318" hidden="true">
       <c r="A318" t="s" s="2">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" t="s" s="2">
@@ -46458,14 +46440,14 @@
     </row>
     <row r="319" hidden="true">
       <c r="A319" t="s" s="2">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E319" s="2"/>
       <c r="F319" t="s" s="2">
@@ -46487,10 +46469,10 @@
         <v>123</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="N319" t="s" s="2">
         <v>126</v>
@@ -46545,7 +46527,7 @@
         <v>84</v>
       </c>
       <c r="AF319" t="s" s="2">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="AG319" t="s" s="2">
         <v>85</v>
@@ -46595,10 +46577,10 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -46624,14 +46606,14 @@
         <v>433</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="N320" s="2"/>
       <c r="O320" t="s" s="2">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="P320" t="s" s="2">
         <v>84</v>
@@ -46680,7 +46662,7 @@
         <v>84</v>
       </c>
       <c r="AF320" t="s" s="2">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="AG320" t="s" s="2">
         <v>85</v>
@@ -46719,7 +46701,7 @@
         <v>84</v>
       </c>
       <c r="AS320" t="s" s="2">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="AT320" t="s" s="2">
         <v>84</v>
@@ -46730,10 +46712,10 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" t="s" s="2">
@@ -46759,10 +46741,10 @@
         <v>249</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" s="2"/>
@@ -46792,10 +46774,10 @@
         <v>181</v>
       </c>
       <c r="Y321" t="s" s="2">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="Z321" t="s" s="2">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="AA321" t="s" s="2">
         <v>84</v>
@@ -46813,7 +46795,7 @@
         <v>84</v>
       </c>
       <c r="AF321" t="s" s="2">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="AG321" t="s" s="2">
         <v>102</v>
@@ -46828,7 +46810,7 @@
         <v>114</v>
       </c>
       <c r="AK321" t="s" s="2">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="AL321" t="s" s="2">
         <v>84</v>
@@ -46852,10 +46834,10 @@
         <v>84</v>
       </c>
       <c r="AS321" t="s" s="2">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="AT321" t="s" s="2">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="AU321" t="s" s="2">
         <v>84</v>
@@ -46863,10 +46845,10 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -46996,10 +46978,10 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -47131,10 +47113,10 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>1044</v>
+        <v>1038</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
@@ -47266,13 +47248,13 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="D325" t="s" s="2">
         <v>84</v>
@@ -47297,7 +47279,7 @@
         <v>169</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="M325" t="s" s="2">
         <v>466</v>
@@ -47335,7 +47317,7 @@
       </c>
       <c r="Y325" s="2"/>
       <c r="Z325" t="s" s="2">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="AA325" t="s" s="2">
         <v>84</v>
@@ -47368,7 +47350,7 @@
         <v>114</v>
       </c>
       <c r="AK325" t="s" s="2">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="AL325" t="s" s="2">
         <v>84</v>
@@ -47403,13 +47385,13 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>1050</v>
+        <v>1044</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D326" t="s" s="2">
         <v>84</v>
@@ -47434,7 +47416,7 @@
         <v>169</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="M326" t="s" s="2">
         <v>466</v>
@@ -47472,7 +47454,7 @@
       </c>
       <c r="Y326" s="2"/>
       <c r="Z326" t="s" s="2">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="AA326" t="s" s="2">
         <v>84</v>
@@ -47540,10 +47522,10 @@
     </row>
     <row r="327" hidden="true">
       <c r="A327" t="s" s="2">
-        <v>1053</v>
+        <v>1047</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -47677,10 +47659,10 @@
     </row>
     <row r="328" hidden="true">
       <c r="A328" t="s" s="2">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="C328" s="2"/>
       <c r="D328" t="s" s="2">
@@ -47706,14 +47688,14 @@
         <v>269</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" t="s" s="2">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="P328" t="s" s="2">
         <v>84</v>
@@ -47762,7 +47744,7 @@
         <v>84</v>
       </c>
       <c r="AF328" t="s" s="2">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="AG328" t="s" s="2">
         <v>85</v>
@@ -47801,10 +47783,10 @@
         <v>84</v>
       </c>
       <c r="AS328" t="s" s="2">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="AT328" t="s" s="2">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="AU328" t="s" s="2">
         <v>84</v>
@@ -47812,10 +47794,10 @@
     </row>
     <row r="329" hidden="true">
       <c r="A329" t="s" s="2">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -47945,10 +47927,10 @@
     </row>
     <row r="330" hidden="true">
       <c r="A330" t="s" s="2">
-        <v>1056</v>
+        <v>1050</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -48080,10 +48062,10 @@
     </row>
     <row r="331" hidden="true">
       <c r="A331" t="s" s="2">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -48109,7 +48091,7 @@
         <v>276</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="M331" t="s" s="2">
         <v>278</v>
@@ -48180,7 +48162,7 @@
         <v>114</v>
       </c>
       <c r="AK331" t="s" s="2">
-        <v>1059</v>
+        <v>1053</v>
       </c>
       <c r="AL331" t="s" s="2">
         <v>84</v>
@@ -48215,10 +48197,10 @@
     </row>
     <row r="332" hidden="true">
       <c r="A332" t="s" s="2">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -48244,7 +48226,7 @@
         <v>276</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="M332" t="s" s="2">
         <v>288</v>
@@ -48317,7 +48299,7 @@
         <v>114</v>
       </c>
       <c r="AK332" t="s" s="2">
-        <v>1062</v>
+        <v>1056</v>
       </c>
       <c r="AL332" t="s" s="2">
         <v>84</v>
@@ -48352,10 +48334,10 @@
     </row>
     <row r="333" hidden="true">
       <c r="A333" t="s" s="2">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" t="s" s="2">
@@ -48381,10 +48363,10 @@
         <v>547</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="N333" s="2"/>
       <c r="O333" s="2"/>
@@ -48435,7 +48417,7 @@
         <v>84</v>
       </c>
       <c r="AF333" t="s" s="2">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="AG333" t="s" s="2">
         <v>85</v>
@@ -48474,7 +48456,7 @@
         <v>84</v>
       </c>
       <c r="AS333" t="s" s="2">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="AT333" t="s" s="2">
         <v>84</v>
@@ -48485,10 +48467,10 @@
     </row>
     <row r="334" hidden="true">
       <c r="A334" t="s" s="2">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -48511,19 +48493,19 @@
         <v>84</v>
       </c>
       <c r="K334" t="s" s="2">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="N334" t="s" s="2">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="O334" t="s" s="2">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="P334" t="s" s="2">
         <v>84</v>
@@ -48552,7 +48534,7 @@
       </c>
       <c r="Y334" s="2"/>
       <c r="Z334" t="s" s="2">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="AA334" t="s" s="2">
         <v>84</v>
@@ -48570,7 +48552,7 @@
         <v>84</v>
       </c>
       <c r="AF334" t="s" s="2">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="AG334" t="s" s="2">
         <v>85</v>
@@ -48606,13 +48588,13 @@
         <v>84</v>
       </c>
       <c r="AR334" t="s" s="2">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="AS334" t="s" s="2">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="AT334" t="s" s="2">
-        <v>1073</v>
+        <v>1067</v>
       </c>
       <c r="AU334" t="s" s="2">
         <v>84</v>

--- a/nr-add-mapping-mos/ig/StructureDefinition-as-dp-practitioner.xlsx
+++ b/nr-add-mapping-mos/ig/StructureDefinition-as-dp-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:56:45+00:00</t>
+    <t>2025-01-03T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2222,7 +2222,7 @@
     <t>Need to know how to reach a practitioner independent to any roles the practitioner may have.</t>
   </si>
   <si>
-    <t>pattern:system}
+    <t>value:system}
 exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
